--- a/Noutati/Pias/PiasNoutati.xlsx
+++ b/Noutati/Pias/PiasNoutati.xlsx
@@ -5,42 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\Organized Folders\SupplierListManagerProject\Noutati\Pias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B70BFF-1C1F-4DCB-B8F0-3961E72BAC9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C0562-EAEB-41B1-8E2A-8B07C6966441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32184" yWindow="2340" windowWidth="29256" windowHeight="7848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3264" yWindow="1848" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Cod Produs</t>
-  </si>
-  <si>
-    <t>Artist</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Cod Bare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artist </t>
   </si>
   <si>
     <t>Titlu</t>
   </si>
   <si>
-    <t>Suport</t>
-  </si>
-  <si>
-    <t>Nr. Unitati</t>
+    <t xml:space="preserve">Suport </t>
+  </si>
+  <si>
+    <t>Nr Unitati</t>
   </si>
   <si>
     <t>Release Date</t>
   </si>
   <si>
-    <t>Cod Pret</t>
+    <t>Pret PPD</t>
   </si>
   <si>
     <t>Baracuda De Langa Prut</t>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>23.02.2021</t>
-  </si>
-  <si>
-    <t>AFM</t>
   </si>
 </sst>
 </file>
@@ -98,7 +95,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -121,44 +118,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -185,15 +182,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -220,7 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -232,142 +227,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -375,19 +394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -414,7 +423,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>6909384928375</v>
+        <v>1111111111111</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -431,11 +440,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="G2">
+        <v>13.26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Noutati/Pias/PiasNoutati.xlsx
+++ b/Noutati/Pias/PiasNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C0562-EAEB-41B1-8E2A-8B07C6966441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64960F7-87B9-4F74-966E-16FA923574E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="1848" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="165">
   <si>
     <t>Cod Bare</t>
   </si>
@@ -43,16 +43,478 @@
     <t>Pret PPD</t>
   </si>
   <si>
-    <t>Baracuda De Langa Prut</t>
-  </si>
-  <si>
-    <t>Casalot De Apa Dulce</t>
+    <t>0656605151014</t>
+  </si>
+  <si>
+    <t>Bright Eyes</t>
+  </si>
+  <si>
+    <t>Down in the Weeds, Where the World Once Was</t>
+  </si>
+  <si>
+    <t>2LP</t>
+  </si>
+  <si>
+    <t>21/08/2020</t>
+  </si>
+  <si>
+    <t>0098787136340</t>
+  </si>
+  <si>
+    <t>Bully</t>
+  </si>
+  <si>
+    <t>SUGAREGG</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>0656605235424</t>
+  </si>
+  <si>
+    <t>Angel Olsen</t>
+  </si>
+  <si>
+    <t>Whole New Mess</t>
   </si>
   <si>
     <t>CD</t>
   </si>
   <si>
-    <t>23.02.2021</t>
+    <t>28/08/2020</t>
+  </si>
+  <si>
+    <t>0656605235417</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>0656605235431</t>
+  </si>
+  <si>
+    <t>0656605235455</t>
+  </si>
+  <si>
+    <t>0790377052824</t>
+  </si>
+  <si>
+    <t>Sally Anne Morgan</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>0790377052817</t>
+  </si>
+  <si>
+    <t>LP+Download</t>
+  </si>
+  <si>
+    <t>0790377528114</t>
+  </si>
+  <si>
+    <t>0790377052428</t>
+  </si>
+  <si>
+    <t>Sam Prekop</t>
+  </si>
+  <si>
+    <t>Comma</t>
+  </si>
+  <si>
+    <t>0790377052411</t>
+  </si>
+  <si>
+    <t>0790377524116</t>
+  </si>
+  <si>
+    <t>0790377052718</t>
+  </si>
+  <si>
+    <t>John Bence</t>
+  </si>
+  <si>
+    <t>KILL</t>
+  </si>
+  <si>
+    <t>0790377052626</t>
+  </si>
+  <si>
+    <t>Matmos</t>
+  </si>
+  <si>
+    <t>The Consuming Flame: Open Exercises in Group Form</t>
+  </si>
+  <si>
+    <t>3CD</t>
+  </si>
+  <si>
+    <t>0098787137927</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>Smell the Magic</t>
+  </si>
+  <si>
+    <t>18/09/2020</t>
+  </si>
+  <si>
+    <t>0098787137910</t>
+  </si>
+  <si>
+    <t>0098787137903</t>
+  </si>
+  <si>
+    <t>0729920164332</t>
+  </si>
+  <si>
+    <t>Sufjan Stevens</t>
+  </si>
+  <si>
+    <t>The Ascension</t>
+  </si>
+  <si>
+    <t>25/09/2020</t>
+  </si>
+  <si>
+    <t>0729920164318</t>
+  </si>
+  <si>
+    <t>0729920164325</t>
+  </si>
+  <si>
+    <t>0720841218620</t>
+  </si>
+  <si>
+    <t>IDLES</t>
+  </si>
+  <si>
+    <t>Ultra Mono</t>
+  </si>
+  <si>
+    <t>LP Vortex</t>
+  </si>
+  <si>
+    <t>5400863033538</t>
+  </si>
+  <si>
+    <t>A Certain Ratio</t>
+  </si>
+  <si>
+    <t>ACR Loco</t>
+  </si>
+  <si>
+    <t>5400863033521</t>
+  </si>
+  <si>
+    <t>5400863033545</t>
+  </si>
+  <si>
+    <t>5400863035211</t>
+  </si>
+  <si>
+    <t>Beverly Glenn-Copeland</t>
+  </si>
+  <si>
+    <t>Transmissions: The Music Of Beverly Glenn-Copeland</t>
+  </si>
+  <si>
+    <t>5400863035198</t>
+  </si>
+  <si>
+    <t>5400863027940</t>
+  </si>
+  <si>
+    <t>Working Men’s Club</t>
+  </si>
+  <si>
+    <t>02/10/2020</t>
+  </si>
+  <si>
+    <t>5400863027926</t>
+  </si>
+  <si>
+    <t>LP+DL</t>
+  </si>
+  <si>
+    <t>0656605041414</t>
+  </si>
+  <si>
+    <t>Anohni</t>
+  </si>
+  <si>
+    <t>It’s All Over Now, Baby Blue b/w Be My Husband</t>
+  </si>
+  <si>
+    <t>7”</t>
+  </si>
+  <si>
+    <t>0790377053128</t>
+  </si>
+  <si>
+    <t>Sumac</t>
+  </si>
+  <si>
+    <t>May You Be Held</t>
+  </si>
+  <si>
+    <t>0790377531213</t>
+  </si>
+  <si>
+    <t>0790377053111</t>
+  </si>
+  <si>
+    <t>0656605236827</t>
+  </si>
+  <si>
+    <t>Gabriel Garzon Montano</t>
+  </si>
+  <si>
+    <t>Aguita</t>
+  </si>
+  <si>
+    <t>0656605236810</t>
+  </si>
+  <si>
+    <t>0656605236834</t>
+  </si>
+  <si>
+    <t>0607396648825</t>
+  </si>
+  <si>
+    <t>The Nude Party</t>
+  </si>
+  <si>
+    <t>Midnight Manor</t>
+  </si>
+  <si>
+    <t>0607396542611</t>
+  </si>
+  <si>
+    <t>0656605360980</t>
+  </si>
+  <si>
+    <t>Mina Tindle</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>0656605360997</t>
+  </si>
+  <si>
+    <t>5400863035327</t>
+  </si>
+  <si>
+    <t>Emmy the Great</t>
+  </si>
+  <si>
+    <t>April/??</t>
+  </si>
+  <si>
+    <t>5400863035310</t>
+  </si>
+  <si>
+    <t>0656605235929</t>
+  </si>
+  <si>
+    <t>Cut Worms</t>
+  </si>
+  <si>
+    <t>Nobody Lives Here Anymore</t>
+  </si>
+  <si>
+    <t>0656605235912</t>
+  </si>
+  <si>
+    <t>0656605235936</t>
+  </si>
+  <si>
+    <t>0098787134025</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Atlas Vending</t>
+  </si>
+  <si>
+    <t>0098787134001</t>
+  </si>
+  <si>
+    <t>0098787134018</t>
+  </si>
+  <si>
+    <t>0098787134049</t>
+  </si>
+  <si>
+    <t>5400863036904</t>
+  </si>
+  <si>
+    <t>Black Pumas</t>
+  </si>
+  <si>
+    <t>3LP</t>
+  </si>
+  <si>
+    <t>5400863036911</t>
+  </si>
+  <si>
+    <t>2CD</t>
+  </si>
+  <si>
+    <t>5400863034139</t>
+  </si>
+  <si>
+    <t>Daniel Avery</t>
+  </si>
+  <si>
+    <t>Love + Light</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>5400863034122</t>
+  </si>
+  <si>
+    <t>0843563129241</t>
+  </si>
+  <si>
+    <t>Holy Motors</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>0843563129258</t>
+  </si>
+  <si>
+    <t>0843563129234</t>
+  </si>
+  <si>
+    <t>0843563129265</t>
+  </si>
+  <si>
+    <t>0880882423223</t>
+  </si>
+  <si>
+    <t>Cordovas</t>
+  </si>
+  <si>
+    <t>Destiny Hotel</t>
+  </si>
+  <si>
+    <t>0880882423315</t>
+  </si>
+  <si>
+    <t>0044003226869</t>
+  </si>
+  <si>
+    <t>Mav Karlo</t>
+  </si>
+  <si>
+    <t>Strangers Like Us</t>
+  </si>
+  <si>
+    <t>0044003226784</t>
+  </si>
+  <si>
+    <t>0676499054222</t>
+  </si>
+  <si>
+    <t>Nimbus Sextet</t>
+  </si>
+  <si>
+    <t>Dreams Fulfilled</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>0676499054260</t>
+  </si>
+  <si>
+    <t>5400863036973</t>
+  </si>
+  <si>
+    <t>Laura Veirs</t>
+  </si>
+  <si>
+    <t>My Echo</t>
+  </si>
+  <si>
+    <t>5400863036959</t>
+  </si>
+  <si>
+    <t>0656605040844</t>
+  </si>
+  <si>
+    <t>Skullcrusher</t>
+  </si>
+  <si>
+    <t>12” EP Vinyl</t>
+  </si>
+  <si>
+    <t>0656605040837</t>
+  </si>
+  <si>
+    <t>12” EP Pic Disc</t>
+  </si>
+  <si>
+    <t>5400863036508</t>
+  </si>
+  <si>
+    <t>Songhoy Blues</t>
+  </si>
+  <si>
+    <t>Optimisme</t>
+  </si>
+  <si>
+    <t>540086036492</t>
+  </si>
+  <si>
+    <t>0098787136623</t>
+  </si>
+  <si>
+    <t>Loma</t>
+  </si>
+  <si>
+    <t>Don’t Shy Away</t>
+  </si>
+  <si>
+    <t>0098787136616</t>
+  </si>
+  <si>
+    <t>0689230022626</t>
+  </si>
+  <si>
+    <t>Mr. Bungle</t>
+  </si>
+  <si>
+    <t>The Raging Wrath Of The Easter Bunny Demo</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t>0689230022657</t>
+  </si>
+  <si>
+    <t>0689230022619</t>
+  </si>
+  <si>
+    <t>0689230022695</t>
   </si>
 </sst>
 </file>
@@ -392,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,26 +884,1705 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1111111111111</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>72.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>72.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>13.26</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20">
+        <v>72.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25">
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27">
+        <v>72.36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50">
+        <v>101.92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51">
+        <v>44.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54">
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>139</v>
+      </c>
+      <c r="G62">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74">
+        <v>72.36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>161</v>
+      </c>
+      <c r="G75">
+        <v>101.92</v>
       </c>
     </row>
   </sheetData>

--- a/Noutati/Pias/PiasNoutati.xlsx
+++ b/Noutati/Pias/PiasNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64960F7-87B9-4F74-966E-16FA923574E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DD3E8F-CDB3-4E71-844A-BA96B76D8D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Noutati/Pias/PiasNoutati.xlsx
+++ b/Noutati/Pias/PiasNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DD3E8F-CDB3-4E71-844A-BA96B76D8D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A98F2B4-9ACE-4B9C-A9D3-09F1FFF3A742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -856,9 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Noutati/Pias/PiasNoutati.xlsx
+++ b/Noutati/Pias/PiasNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A98F2B4-9ACE-4B9C-A9D3-09F1FFF3A742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DEB630-2F50-4AC4-9461-6E597B8E1F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5484" yWindow="3480" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="200">
   <si>
     <t>Cod Bare</t>
   </si>
@@ -70,6 +70,39 @@
     <t>MC</t>
   </si>
   <si>
+    <t>0607396540716</t>
+  </si>
+  <si>
+    <t>Naked Giants</t>
+  </si>
+  <si>
+    <t>The Shadow</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>0880882415129</t>
+  </si>
+  <si>
+    <t>My Morning Jacket</t>
+  </si>
+  <si>
+    <t>Waterfall II</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>28/08/2020</t>
+  </si>
+  <si>
+    <t>0880882415112</t>
+  </si>
+  <si>
+    <t>0880882415211</t>
+  </si>
+  <si>
     <t>0656605235424</t>
   </si>
   <si>
@@ -79,24 +112,48 @@
     <t>Whole New Mess</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>28/08/2020</t>
-  </si>
-  <si>
     <t>0656605235417</t>
   </si>
   <si>
-    <t>LP</t>
-  </si>
-  <si>
     <t>0656605235431</t>
   </si>
   <si>
     <t>0656605235455</t>
   </si>
   <si>
+    <t>0098787010503</t>
+  </si>
+  <si>
+    <t>Mudhoney</t>
+  </si>
+  <si>
+    <t>Every Good Boy Deserves Fudge</t>
+  </si>
+  <si>
+    <t>0098787004403</t>
+  </si>
+  <si>
+    <t>0098787002102</t>
+  </si>
+  <si>
+    <t>Superfuzz Bigmuff</t>
+  </si>
+  <si>
+    <t>0607396648924</t>
+  </si>
+  <si>
+    <t>Delta Spirit</t>
+  </si>
+  <si>
+    <t>What Is There</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>0607396540914</t>
+  </si>
+  <si>
     <t>0790377052824</t>
   </si>
   <si>
@@ -106,9 +163,6 @@
     <t>Thread</t>
   </si>
   <si>
-    <t>11/09/2020</t>
-  </si>
-  <si>
     <t>0790377052817</t>
   </si>
   <si>
@@ -154,6 +208,15 @@
     <t>3CD</t>
   </si>
   <si>
+    <t>0600116515711</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>All or Nothing</t>
+  </si>
+  <si>
     <t>0098787137927</t>
   </si>
   <si>
@@ -172,6 +235,36 @@
     <t>0098787137903</t>
   </si>
   <si>
+    <t>0656605150826</t>
+  </si>
+  <si>
+    <t>Fenne Lily</t>
+  </si>
+  <si>
+    <t>Breach</t>
+  </si>
+  <si>
+    <t>0656605150819</t>
+  </si>
+  <si>
+    <t>0843563129227</t>
+  </si>
+  <si>
+    <t>Profligate</t>
+  </si>
+  <si>
+    <t>Too Numb to Kno</t>
+  </si>
+  <si>
+    <t>25/09/2020</t>
+  </si>
+  <si>
+    <t>0843563129203</t>
+  </si>
+  <si>
+    <t>Too Numb to Know</t>
+  </si>
+  <si>
     <t>0729920164332</t>
   </si>
   <si>
@@ -181,25 +274,37 @@
     <t>The Ascension</t>
   </si>
   <si>
-    <t>25/09/2020</t>
-  </si>
-  <si>
     <t>0729920164318</t>
   </si>
   <si>
     <t>0729920164325</t>
   </si>
   <si>
+    <t>0720841218623</t>
+  </si>
+  <si>
+    <t>IDLES</t>
+  </si>
+  <si>
+    <t>Ultra Mono</t>
+  </si>
+  <si>
+    <t>0720841218616</t>
+  </si>
+  <si>
     <t>0720841218620</t>
   </si>
   <si>
-    <t>IDLES</t>
-  </si>
-  <si>
-    <t>Ultra Mono</t>
-  </si>
-  <si>
     <t>LP Vortex</t>
+  </si>
+  <si>
+    <t>0720841218685</t>
+  </si>
+  <si>
+    <t>LP Deluxe</t>
+  </si>
+  <si>
+    <t>0720841218647</t>
   </si>
   <si>
     <t>5400863033538</t>
@@ -854,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,53 +1051,53 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>39.75</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>66.25</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>66.25</v>
@@ -1000,68 +1105,68 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
       <c r="G7">
-        <v>22.75</v>
+        <v>72.36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>36.69</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>66.25</v>
@@ -1072,22 +1177,22 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>72.36</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1095,45 +1200,45 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>36.69</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G12">
-        <v>66.25</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1141,22 +1246,22 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G13">
-        <v>72.36</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1164,19 +1269,19 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>59.11</v>
@@ -1184,36 +1289,36 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
       <c r="G15">
-        <v>66.25</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -1222,15 +1327,15 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G16">
-        <v>36.69</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -1239,21 +1344,21 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G17">
-        <v>59.11</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1262,44 +1367,44 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G18">
-        <v>59.11</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G19">
-        <v>39.75</v>
+        <v>72.36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
@@ -1308,21 +1413,21 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G20">
-        <v>72.36</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -1331,82 +1436,82 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G21">
-        <v>22.75</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G22">
-        <v>66.25</v>
+        <v>72.36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G23">
-        <v>36.69</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>66.25</v>
@@ -1414,25 +1519,25 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G25">
-        <v>26.88</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1446,21 +1551,21 @@
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G26">
-        <v>39.75</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -1469,27 +1574,27 @@
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G27">
-        <v>72.36</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -1498,33 +1603,33 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G28">
-        <v>36.69</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G29">
-        <v>66.25</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1532,65 +1637,65 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G30">
-        <v>22.75</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>78</v>
       </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>71</v>
-      </c>
       <c r="G31">
-        <v>36.69</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
         <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G32">
         <v>66.25</v>
@@ -1598,106 +1703,106 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G33">
-        <v>66.25</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G34">
-        <v>39.75</v>
+        <v>72.36</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G35">
-        <v>66.25</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G36">
-        <v>66.25</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
@@ -1705,30 +1810,30 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G37">
-        <v>36.69</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
         <v>91</v>
       </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G38">
         <v>66.25</v>
@@ -1739,65 +1844,65 @@
         <v>92</v>
       </c>
       <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
         <v>93</v>
       </c>
-      <c r="C39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G39">
-        <v>39.75</v>
+        <v>101.92</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G40">
-        <v>66.25</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
-      </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G41">
         <v>36.69</v>
@@ -1805,22 +1910,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G42">
         <v>66.25</v>
@@ -1828,91 +1933,91 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G43">
-        <v>39.75</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
         <v>102</v>
       </c>
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G44">
-        <v>66.25</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
         <v>102</v>
       </c>
-      <c r="C45" t="s">
-        <v>103</v>
-      </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G45">
-        <v>66.25</v>
+        <v>72.36</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
         <v>106</v>
-      </c>
-      <c r="B46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>95</v>
       </c>
       <c r="G46">
         <v>36.69</v>
@@ -1920,140 +2025,140 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
         <v>108</v>
       </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G47">
-        <v>59.11</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
         <v>110</v>
       </c>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G48">
-        <v>59.11</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G49">
-        <v>22.75</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G50">
-        <v>101.92</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
         <v>115</v>
       </c>
-      <c r="B51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" t="s">
-        <v>113</v>
-      </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G51">
-        <v>44.84</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G52">
-        <v>36.69</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2061,19 +2166,19 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G53">
         <v>66.25</v>
@@ -2084,10 +2189,10 @@
         <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -2096,33 +2201,33 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G54">
-        <v>39.75</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
         <v>125</v>
       </c>
-      <c r="B55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" t="s">
-        <v>124</v>
-      </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G55">
-        <v>66.25</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2130,19 +2235,19 @@
         <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G56">
         <v>66.25</v>
@@ -2153,73 +2258,73 @@
         <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G57">
-        <v>66.25</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" t="s">
         <v>128</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>129</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>130</v>
       </c>
-      <c r="D58" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>120</v>
-      </c>
       <c r="G58">
-        <v>36.69</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
         <v>130</v>
       </c>
-      <c r="D59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>120</v>
-      </c>
       <c r="G59">
-        <v>66.25</v>
+        <v>36.69</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
         <v>133</v>
@@ -2234,38 +2339,38 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G60">
-        <v>36.69</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G61">
-        <v>59.11</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s">
         <v>137</v>
@@ -2280,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G62">
-        <v>36.69</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2297,13 +2402,13 @@
         <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G63">
         <v>66.25</v>
@@ -2320,13 +2425,13 @@
         <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G64">
         <v>36.69</v>
@@ -2343,16 +2448,16 @@
         <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G65">
-        <v>66.25</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2360,111 +2465,111 @@
         <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G66">
-        <v>51.52</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G67">
-        <v>51.52</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G68">
-        <v>36.69</v>
+        <v>101.92</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" t="s">
         <v>151</v>
       </c>
-      <c r="C69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" t="s">
-        <v>22</v>
-      </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G69">
-        <v>66.25</v>
+        <v>44.84</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
         <v>154</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
         <v>155</v>
-      </c>
-      <c r="C70" t="s">
-        <v>156</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>139</v>
       </c>
       <c r="G70">
         <v>36.69</v>
@@ -2472,60 +2577,60 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
         <v>155</v>
       </c>
-      <c r="C71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>139</v>
-      </c>
       <c r="G71">
-        <v>59.11</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
         <v>158</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>159</v>
       </c>
-      <c r="C72" t="s">
-        <v>160</v>
-      </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G72">
-        <v>36.69</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
         <v>159</v>
       </c>
-      <c r="C73" t="s">
-        <v>160</v>
-      </c>
       <c r="D73" t="s">
         <v>19</v>
       </c>
@@ -2533,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G73">
         <v>66.25</v>
@@ -2541,47 +2646,461 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s">
         <v>159</v>
       </c>
-      <c r="C74" t="s">
-        <v>160</v>
-      </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G74">
-        <v>72.36</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" t="s">
         <v>164</v>
       </c>
-      <c r="B75" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G76">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>155</v>
+      </c>
+      <c r="G78">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>155</v>
+      </c>
+      <c r="G79">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>174</v>
+      </c>
+      <c r="G80">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>174</v>
+      </c>
+      <c r="G82">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>174</v>
+      </c>
+      <c r="G83">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>174</v>
+      </c>
+      <c r="G84">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>174</v>
+      </c>
+      <c r="G86">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>174</v>
+      </c>
+      <c r="G87">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>174</v>
+      </c>
+      <c r="G89">
+        <v>59.11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>196</v>
+      </c>
+      <c r="G90">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>196</v>
+      </c>
+      <c r="G91">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" t="s">
         <v>10</v>
       </c>
-      <c r="E75">
+      <c r="E92">
         <v>2</v>
       </c>
-      <c r="F75" t="s">
-        <v>161</v>
-      </c>
-      <c r="G75">
+      <c r="F92" t="s">
+        <v>196</v>
+      </c>
+      <c r="G92">
+        <v>72.36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>196</v>
+      </c>
+      <c r="G93">
         <v>101.92</v>
       </c>
     </row>

--- a/Noutati/Pias/PiasNoutati.xlsx
+++ b/Noutati/Pias/PiasNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DEB630-2F50-4AC4-9461-6E597B8E1F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F1887-BE9F-4931-934B-01EF773C7E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5484" yWindow="3480" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5052" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>

--- a/Noutati/Pias/PiasNoutati.xlsx
+++ b/Noutati/Pias/PiasNoutati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Noutati\Pias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F1887-BE9F-4931-934B-01EF773C7E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1B953-FBE7-400C-BDB0-6D34AF216BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5052" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34680" yWindow="3648" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="370">
   <si>
     <t>Cod Bare</t>
   </si>
@@ -43,6 +43,342 @@
     <t>Pret PPD</t>
   </si>
   <si>
+    <t>5400863024932</t>
+  </si>
+  <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Your Hero Is Not Dead</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>05/06/2020</t>
+  </si>
+  <si>
+    <t>540086027865</t>
+  </si>
+  <si>
+    <t>Drab City</t>
+  </si>
+  <si>
+    <t>Good Music for Bad People</t>
+  </si>
+  <si>
+    <t>0098787136029</t>
+  </si>
+  <si>
+    <t>Rolling Blackouts Coastal Fever</t>
+  </si>
+  <si>
+    <t>Sideways To New Italy</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>0098787136012</t>
+  </si>
+  <si>
+    <t>0098787136043</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>0876623008071</t>
+  </si>
+  <si>
+    <t>Zenobia</t>
+  </si>
+  <si>
+    <t>Halak, Halak</t>
+  </si>
+  <si>
+    <t>36,69 </t>
+  </si>
+  <si>
+    <t>0876623008095</t>
+  </si>
+  <si>
+    <t>0876623008101</t>
+  </si>
+  <si>
+    <t>Nihiloxica</t>
+  </si>
+  <si>
+    <t>Kaloli</t>
+  </si>
+  <si>
+    <t>12/06/2020</t>
+  </si>
+  <si>
+    <t>0876623008118</t>
+  </si>
+  <si>
+    <t>2LP</t>
+  </si>
+  <si>
+    <t>0656605150093</t>
+  </si>
+  <si>
+    <t>Phoebe Bridgers</t>
+  </si>
+  <si>
+    <t>Punisher</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
+  </si>
+  <si>
+    <t>0656605150017</t>
+  </si>
+  <si>
+    <t>5021392584126</t>
+  </si>
+  <si>
+    <t>Bonobo</t>
+  </si>
+  <si>
+    <t>Black Sands</t>
+  </si>
+  <si>
+    <t>5021392584188</t>
+  </si>
+  <si>
+    <t>0790377051216</t>
+  </si>
+  <si>
+    <t>Golden Retriever &amp; Chuck Johnson</t>
+  </si>
+  <si>
+    <t>Rain Shadow</t>
+  </si>
+  <si>
+    <t>LP+DL</t>
+  </si>
+  <si>
+    <t>0790377512113</t>
+  </si>
+  <si>
+    <t>0843563125809</t>
+  </si>
+  <si>
+    <t>Public Practice</t>
+  </si>
+  <si>
+    <t>Gentle Grip</t>
+  </si>
+  <si>
+    <t>26/06/2020</t>
+  </si>
+  <si>
+    <t>0656605149332</t>
+  </si>
+  <si>
+    <t>Khruangbin</t>
+  </si>
+  <si>
+    <t>Mordechai</t>
+  </si>
+  <si>
+    <t>LP PINK</t>
+  </si>
+  <si>
+    <t>0656605354187</t>
+  </si>
+  <si>
+    <t>Naeem</t>
+  </si>
+  <si>
+    <t>Startisha</t>
+  </si>
+  <si>
+    <t>39,75 </t>
+  </si>
+  <si>
+    <t>0656605357997</t>
+  </si>
+  <si>
+    <t>5400863028831</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>Blast Of Silence</t>
+  </si>
+  <si>
+    <t>03/07/2020</t>
+  </si>
+  <si>
+    <t>0780163561623</t>
+  </si>
+  <si>
+    <t>Jeff Russo</t>
+  </si>
+  <si>
+    <t>The Umbrella Academy</t>
+  </si>
+  <si>
+    <t>5400863028077</t>
+  </si>
+  <si>
+    <t>Mr. Ben &amp; The Bens</t>
+  </si>
+  <si>
+    <t>Life Drawing</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>5400863028060</t>
+  </si>
+  <si>
+    <t>0607396647026</t>
+  </si>
+  <si>
+    <t>The Texas Gentleman</t>
+  </si>
+  <si>
+    <t>Floor It!</t>
+  </si>
+  <si>
+    <t>17/07/2020</t>
+  </si>
+  <si>
+    <t>0607396537112</t>
+  </si>
+  <si>
+    <t>0843563122259</t>
+  </si>
+  <si>
+    <t>Dougie Poole</t>
+  </si>
+  <si>
+    <t>The Freelancer’s Blues</t>
+  </si>
+  <si>
+    <t>0790377511116</t>
+  </si>
+  <si>
+    <t>Jim White &amp; Marisa Anderson</t>
+  </si>
+  <si>
+    <t>The Quickening</t>
+  </si>
+  <si>
+    <t>0790377052329</t>
+  </si>
+  <si>
+    <t>Rose City Band</t>
+  </si>
+  <si>
+    <t>Summerlong</t>
+  </si>
+  <si>
+    <t>0790377052312</t>
+  </si>
+  <si>
+    <t>0790377523119</t>
+  </si>
+  <si>
+    <t>5400863027131</t>
+  </si>
+  <si>
+    <t>Nicolas Bougaieff</t>
+  </si>
+  <si>
+    <t>The Upward Spiral</t>
+  </si>
+  <si>
+    <t>24/07/2020</t>
+  </si>
+  <si>
+    <t>5400863027124</t>
+  </si>
+  <si>
+    <t>0780163558128</t>
+  </si>
+  <si>
+    <t>Carter Burwell</t>
+  </si>
+  <si>
+    <t>The Morning Show</t>
+  </si>
+  <si>
+    <t>5054429142235</t>
+  </si>
+  <si>
+    <t>Romare</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>31/07/2020</t>
+  </si>
+  <si>
+    <t>5054429142228</t>
+  </si>
+  <si>
+    <t>5400863028039</t>
+  </si>
+  <si>
+    <t>Leila Moss</t>
+  </si>
+  <si>
+    <t>Who The Power</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>5400863028022</t>
+  </si>
+  <si>
+    <t>0098787136548</t>
+  </si>
+  <si>
+    <t>Washed Out</t>
+  </si>
+  <si>
+    <t>Purple Noon</t>
+  </si>
+  <si>
+    <t>5054429141832</t>
+  </si>
+  <si>
+    <t>Bronson</t>
+  </si>
+  <si>
+    <t>5054429141818</t>
+  </si>
+  <si>
+    <t>5051083157582</t>
+  </si>
+  <si>
+    <t>Billy Nomates</t>
+  </si>
+  <si>
+    <t>5051083157605</t>
+  </si>
+  <si>
+    <t>0656605040905</t>
+  </si>
+  <si>
+    <t>Whitney</t>
+  </si>
+  <si>
+    <t>Candid</t>
+  </si>
+  <si>
+    <t>14/08/2020</t>
+  </si>
+  <si>
     <t>0656605151014</t>
   </si>
   <si>
@@ -52,12 +388,111 @@
     <t>Down in the Weeds, Where the World Once Was</t>
   </si>
   <si>
-    <t>2LP</t>
-  </si>
-  <si>
     <t>21/08/2020</t>
   </si>
   <si>
+    <t>5024545890723</t>
+  </si>
+  <si>
+    <t>The Divine Comedy</t>
+  </si>
+  <si>
+    <t>A Short Album About Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD/DVD  </t>
+  </si>
+  <si>
+    <t>5024545890815</t>
+  </si>
+  <si>
+    <t>5024545891621</t>
+  </si>
+  <si>
+    <t>Absent Friends</t>
+  </si>
+  <si>
+    <t>2CD</t>
+  </si>
+  <si>
+    <t>5024545891713</t>
+  </si>
+  <si>
+    <t>5024545892222</t>
+  </si>
+  <si>
+    <t>Bang Goes The Knighthood</t>
+  </si>
+  <si>
+    <t>5024545892314</t>
+  </si>
+  <si>
+    <t>5024545890426</t>
+  </si>
+  <si>
+    <t>Casanova</t>
+  </si>
+  <si>
+    <t>5024545890518</t>
+  </si>
+  <si>
+    <t>5024545891027</t>
+  </si>
+  <si>
+    <t>Fin De Siecle</t>
+  </si>
+  <si>
+    <t>5024545891119</t>
+  </si>
+  <si>
+    <t>5024545889826</t>
+  </si>
+  <si>
+    <t>Liberation</t>
+  </si>
+  <si>
+    <t>5024545889918</t>
+  </si>
+  <si>
+    <t>5024545890129</t>
+  </si>
+  <si>
+    <t>Promenade</t>
+  </si>
+  <si>
+    <t>5024545890211</t>
+  </si>
+  <si>
+    <t>5024545891324</t>
+  </si>
+  <si>
+    <t>Regeneration</t>
+  </si>
+  <si>
+    <t>5024545891416</t>
+  </si>
+  <si>
+    <t>5024545891928</t>
+  </si>
+  <si>
+    <t>Victory for the Cosmic Muse</t>
+  </si>
+  <si>
+    <t>5024545892017</t>
+  </si>
+  <si>
+    <t>5400863030544</t>
+  </si>
+  <si>
+    <t>Erasure</t>
+  </si>
+  <si>
+    <t>The Neon</t>
+  </si>
+  <si>
+    <t>5400863033866</t>
+  </si>
+  <si>
     <t>0098787136340</t>
   </si>
   <si>
@@ -67,9 +502,6 @@
     <t>SUGAREGG</t>
   </si>
   <si>
-    <t>MC</t>
-  </si>
-  <si>
     <t>0607396540716</t>
   </si>
   <si>
@@ -79,7 +511,13 @@
     <t>The Shadow</t>
   </si>
   <si>
-    <t>LP</t>
+    <t>5024545892529</t>
+  </si>
+  <si>
+    <t>Venus, Cupid, Folly and Time</t>
+  </si>
+  <si>
+    <t>Box Set</t>
   </si>
   <si>
     <t>0880882415129</t>
@@ -91,9 +529,6 @@
     <t>Waterfall II</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>28/08/2020</t>
   </si>
   <si>
@@ -139,6 +574,27 @@
     <t>Superfuzz Bigmuff</t>
   </si>
   <si>
+    <t>5400863030155</t>
+  </si>
+  <si>
+    <t>Baasch</t>
+  </si>
+  <si>
+    <t>Noc</t>
+  </si>
+  <si>
+    <t>5400863032104</t>
+  </si>
+  <si>
+    <t>The Flaming Lips</t>
+  </si>
+  <si>
+    <t>American Head</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
     <t>0607396648924</t>
   </si>
   <si>
@@ -148,9 +604,6 @@
     <t>What Is There</t>
   </si>
   <si>
-    <t>11/09/2020</t>
-  </si>
-  <si>
     <t>0607396540914</t>
   </si>
   <si>
@@ -217,6 +670,33 @@
     <t>All or Nothing</t>
   </si>
   <si>
+    <t>5400863018177</t>
+  </si>
+  <si>
+    <t>Honey Harper</t>
+  </si>
+  <si>
+    <t>Starmaker</t>
+  </si>
+  <si>
+    <t>5400863032500</t>
+  </si>
+  <si>
+    <t>Mildlife</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>18/09/2020</t>
+  </si>
+  <si>
+    <t>5400863032494</t>
+  </si>
+  <si>
+    <t>5400863032487</t>
+  </si>
+  <si>
     <t>0098787137927</t>
   </si>
   <si>
@@ -226,15 +706,27 @@
     <t>Smell the Magic</t>
   </si>
   <si>
-    <t>18/09/2020</t>
-  </si>
-  <si>
     <t>0098787137910</t>
   </si>
   <si>
     <t>0098787137903</t>
   </si>
   <si>
+    <t>5051083161947</t>
+  </si>
+  <si>
+    <t>Matt Berry</t>
+  </si>
+  <si>
+    <t>Phantom Birds</t>
+  </si>
+  <si>
+    <t>5051083161930</t>
+  </si>
+  <si>
+    <t>0676499053690</t>
+  </si>
+  <si>
     <t>0656605150826</t>
   </si>
   <si>
@@ -247,6 +739,18 @@
     <t>0656605150819</t>
   </si>
   <si>
+    <t>5400863025335</t>
+  </si>
+  <si>
+    <t>Ed Harcourt</t>
+  </si>
+  <si>
+    <t>Monochrome To Colour</t>
+  </si>
+  <si>
+    <t>5400863034757</t>
+  </si>
+  <si>
     <t>0843563129227</t>
   </si>
   <si>
@@ -346,9 +850,6 @@
     <t>5400863027926</t>
   </si>
   <si>
-    <t>LP+DL</t>
-  </si>
-  <si>
     <t>0656605041414</t>
   </si>
   <si>
@@ -475,9 +976,6 @@
     <t>5400863036911</t>
   </si>
   <si>
-    <t>2CD</t>
-  </si>
-  <si>
     <t>5400863034139</t>
   </si>
   <si>
@@ -587,6 +1085,18 @@
   </si>
   <si>
     <t>540086036492</t>
+  </si>
+  <si>
+    <t>5400863033811</t>
+  </si>
+  <si>
+    <t>Keaton Henson</t>
+  </si>
+  <si>
+    <t>Monument</t>
+  </si>
+  <si>
+    <t>5400863033804</t>
   </si>
   <si>
     <t>0098787136623</t>
@@ -959,13 +1469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1002,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1010,8 +1520,11 @@
       <c r="G2">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1022,7 +1535,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1031,21 +1544,24 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1054,104 +1570,116 @@
         <v>11</v>
       </c>
       <c r="G4">
+        <v>36.69</v>
+      </c>
+      <c r="H4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>59.11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="H5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>22.75</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="G5">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="G6">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>72.36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>59.11</v>
+      </c>
+      <c r="H8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -1160,19 +1688,19 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1183,44 +1711,50 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G10">
+        <v>72.36</v>
+      </c>
+      <c r="H10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -1229,1879 +1763,4070 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G12">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
       <c r="G13">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36.69</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G14">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G15">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G16">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72.36</v>
+      </c>
+      <c r="H16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G17">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>66.25</v>
+      </c>
+      <c r="H20">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21">
         <v>72.36</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G22">
-        <v>72.36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101.92</v>
+      </c>
+      <c r="H22">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G24">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G26">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G27">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39.75</v>
+      </c>
+      <c r="H27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G28">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G30">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>75</v>
       </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>78</v>
-      </c>
       <c r="G31">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G32">
+        <v>36.69</v>
+      </c>
+      <c r="H32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G34">
         <v>72.36</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G35">
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36.69</v>
+      </c>
+      <c r="H35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G36">
+        <v>72.36</v>
+      </c>
+      <c r="H36">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37">
         <v>36.69</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G38">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G39">
-        <v>101.92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22.75</v>
+      </c>
+      <c r="H39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G40">
-        <v>30.58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36.69</v>
+      </c>
+      <c r="H40">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G41">
+        <v>66.25</v>
+      </c>
+      <c r="H41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42">
         <v>36.69</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G43">
-        <v>26.88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72.36</v>
+      </c>
+      <c r="H43">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="G44">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22.75</v>
+      </c>
+      <c r="H44">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="G45">
-        <v>72.36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G46">
         <v>36.69</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G47">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G48">
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36.69</v>
+      </c>
+      <c r="H48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G49">
+        <v>66.25</v>
+      </c>
+      <c r="H49">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50">
         <v>36.69</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G51">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G52">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36.69</v>
+      </c>
+      <c r="H52">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G53">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
         <v>122</v>
       </c>
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
-      </c>
       <c r="G54">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36.69</v>
+      </c>
+      <c r="H54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G55">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H55">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
         <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G56">
+        <v>36.69</v>
+      </c>
+      <c r="H56">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>130</v>
-      </c>
-      <c r="G57">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G58">
+        <v>36.69</v>
+      </c>
+      <c r="H58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59">
+      <c r="H59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60">
         <v>36.69</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60">
+      <c r="H60">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>130</v>
-      </c>
-      <c r="G61">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G62">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36.69</v>
+      </c>
+      <c r="H62">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G63">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G64">
         <v>36.69</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G65">
+        <v>27.52</v>
+      </c>
+      <c r="H65">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66">
+        <v>22.75</v>
+      </c>
+      <c r="H66">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67">
         <v>59.11</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>145</v>
-      </c>
-      <c r="B66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" t="s">
-        <v>143</v>
-      </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
-      </c>
-      <c r="G67">
-        <v>22.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G68">
-        <v>101.92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="G69">
-        <v>44.84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36.69</v>
+      </c>
+      <c r="H69">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G70">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66.25</v>
+      </c>
+      <c r="H70">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G71">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72.36</v>
+      </c>
+      <c r="H71">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>155</v>
-      </c>
-      <c r="G72">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="G72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G73">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G74">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G75">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22.75</v>
+      </c>
+      <c r="H75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G76">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59.11</v>
+      </c>
+      <c r="H76">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G77">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59.11</v>
+      </c>
+      <c r="H77">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
         <v>169</v>
       </c>
-      <c r="D78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>155</v>
-      </c>
       <c r="G78">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59.11</v>
+      </c>
+      <c r="H78">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
         <v>169</v>
       </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>155</v>
-      </c>
       <c r="G79">
-        <v>59.11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G80">
         <v>36.69</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>174</v>
-      </c>
-      <c r="G81">
+        <v>190</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>190</v>
+      </c>
+      <c r="G82">
+        <v>59.11</v>
+      </c>
+      <c r="H82">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>190</v>
+      </c>
+      <c r="G83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>190</v>
+      </c>
+      <c r="G84">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>174</v>
-      </c>
-      <c r="G82">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>179</v>
-      </c>
-      <c r="B83" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>174</v>
-      </c>
-      <c r="G83">
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>180</v>
-      </c>
-      <c r="B84" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" t="s">
-        <v>182</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>174</v>
-      </c>
-      <c r="G84">
-        <v>51.52</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D85" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G85">
-        <v>51.52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72.36</v>
+      </c>
+      <c r="H85">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
-      </c>
-      <c r="G86">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G87">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
         <v>190</v>
       </c>
-      <c r="C88" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
-      </c>
       <c r="G88">
-        <v>36.69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72.36</v>
+      </c>
+      <c r="H88">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
         <v>190</v>
-      </c>
-      <c r="C89" t="s">
-        <v>191</v>
-      </c>
-      <c r="D89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89">
         <v>59.11</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C90" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90">
+        <v>66.25</v>
+      </c>
+      <c r="H90">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91">
+        <v>59.11</v>
+      </c>
+      <c r="H91">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>190</v>
+      </c>
+      <c r="G92">
+        <v>66.25</v>
+      </c>
+      <c r="H92">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>222</v>
+      </c>
+      <c r="G93">
+        <v>36.69</v>
+      </c>
+      <c r="H93">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>222</v>
+      </c>
+      <c r="G94">
+        <v>59.11</v>
+      </c>
+      <c r="H94">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>222</v>
+      </c>
+      <c r="G95">
+        <v>59.11</v>
+      </c>
+      <c r="H95">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>222</v>
+      </c>
+      <c r="G96">
+        <v>36.69</v>
+      </c>
+      <c r="H96">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>228</v>
+      </c>
+      <c r="B97" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
+        <v>227</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>222</v>
+      </c>
+      <c r="G97">
+        <v>59.11</v>
+      </c>
+      <c r="H97">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>222</v>
+      </c>
+      <c r="G98">
+        <v>59.11</v>
+      </c>
+      <c r="H98">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>230</v>
+      </c>
+      <c r="B99" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>222</v>
+      </c>
+      <c r="G99">
+        <v>36.69</v>
+      </c>
+      <c r="H99">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" t="s">
+        <v>232</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>222</v>
+      </c>
+      <c r="G100">
+        <v>59.11</v>
+      </c>
+      <c r="H100">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>234</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>222</v>
+      </c>
+      <c r="G101">
+        <v>59.11</v>
+      </c>
+      <c r="H101">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>222</v>
+      </c>
+      <c r="G102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>238</v>
+      </c>
+      <c r="B103" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>222</v>
+      </c>
+      <c r="G103">
+        <v>66.25</v>
+      </c>
+      <c r="H103">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" t="s">
+        <v>241</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>222</v>
+      </c>
+      <c r="G104">
+        <v>36.69</v>
+      </c>
+      <c r="H104">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>242</v>
+      </c>
+      <c r="B105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>222</v>
+      </c>
+      <c r="G105">
+        <v>72.36</v>
+      </c>
+      <c r="H105">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>243</v>
+      </c>
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>246</v>
+      </c>
+      <c r="G106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>247</v>
+      </c>
+      <c r="B107" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>246</v>
+      </c>
+      <c r="G107">
+        <v>66.25</v>
+      </c>
+      <c r="H107">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" t="s">
+        <v>250</v>
+      </c>
+      <c r="C108" t="s">
+        <v>251</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>246</v>
+      </c>
+      <c r="G108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>252</v>
+      </c>
+      <c r="B109" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" t="s">
+        <v>251</v>
+      </c>
+      <c r="D109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>246</v>
+      </c>
+      <c r="G109">
+        <v>72.36</v>
+      </c>
+      <c r="H109">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>253</v>
+      </c>
+      <c r="B110" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G110">
+        <v>22.75</v>
+      </c>
+      <c r="H110">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" t="s">
+        <v>256</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111">
+        <v>36.69</v>
+      </c>
+      <c r="H111">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>246</v>
+      </c>
+      <c r="G112">
+        <v>59.11</v>
+      </c>
+      <c r="H112">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>258</v>
+      </c>
+      <c r="B113" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" t="s">
+        <v>256</v>
+      </c>
+      <c r="D113" t="s">
+        <v>259</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>246</v>
+      </c>
+      <c r="G113">
+        <v>66.25</v>
+      </c>
+      <c r="H113">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>260</v>
+      </c>
+      <c r="B114" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" t="s">
+        <v>256</v>
+      </c>
+      <c r="D114" t="s">
+        <v>261</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>246</v>
+      </c>
+      <c r="G114">
+        <v>101.92</v>
+      </c>
+      <c r="H114">
         <v>195</v>
       </c>
-      <c r="D90" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>196</v>
-      </c>
-      <c r="G90">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>262</v>
+      </c>
+      <c r="B115" t="s">
+        <v>255</v>
+      </c>
+      <c r="C115" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>246</v>
+      </c>
+      <c r="G115">
+        <v>30.58</v>
+      </c>
+      <c r="H115">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116" t="s">
+        <v>265</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>246</v>
+      </c>
+      <c r="G116">
         <v>36.69</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>197</v>
-      </c>
-      <c r="B91" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="H116">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>266</v>
+      </c>
+      <c r="B117" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" t="s">
+        <v>265</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>246</v>
+      </c>
+      <c r="G117">
+        <v>66.25</v>
+      </c>
+      <c r="H117">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>267</v>
+      </c>
+      <c r="B118" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>246</v>
+      </c>
+      <c r="G118">
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>268</v>
+      </c>
+      <c r="B119" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>246</v>
+      </c>
+      <c r="G119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>271</v>
+      </c>
+      <c r="B120" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" t="s">
+        <v>270</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>246</v>
+      </c>
+      <c r="G120">
+        <v>72.36</v>
+      </c>
+      <c r="H120">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>272</v>
+      </c>
+      <c r="B121" t="s">
+        <v>273</v>
+      </c>
+      <c r="C121" t="s">
+        <v>273</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>274</v>
+      </c>
+      <c r="G121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>275</v>
+      </c>
+      <c r="B122" t="s">
+        <v>273</v>
+      </c>
+      <c r="C122" t="s">
+        <v>273</v>
+      </c>
+      <c r="D122" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>274</v>
+      </c>
+      <c r="G122">
+        <v>66.25</v>
+      </c>
+      <c r="H122">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>276</v>
+      </c>
+      <c r="B123" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" t="s">
+        <v>278</v>
+      </c>
+      <c r="D123" t="s">
+        <v>279</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>274</v>
+      </c>
+      <c r="G123">
+        <v>22.75</v>
+      </c>
+      <c r="H123">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>280</v>
+      </c>
+      <c r="B124" t="s">
+        <v>281</v>
+      </c>
+      <c r="C124" t="s">
+        <v>282</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>274</v>
+      </c>
+      <c r="G124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>283</v>
+      </c>
+      <c r="B125" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" t="s">
+        <v>282</v>
+      </c>
+      <c r="D125" t="s">
+        <v>199</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>274</v>
+      </c>
+      <c r="G125">
+        <v>66.25</v>
+      </c>
+      <c r="H125">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>284</v>
+      </c>
+      <c r="B126" t="s">
+        <v>281</v>
+      </c>
+      <c r="C126" t="s">
+        <v>282</v>
+      </c>
+      <c r="D126" t="s">
+        <v>199</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>274</v>
+      </c>
+      <c r="G126">
+        <v>66.25</v>
+      </c>
+      <c r="H126">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" t="s">
+        <v>286</v>
+      </c>
+      <c r="C127" t="s">
+        <v>287</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>274</v>
+      </c>
+      <c r="G127">
+        <v>39.75</v>
+      </c>
+      <c r="H127">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>288</v>
+      </c>
+      <c r="B128" t="s">
+        <v>286</v>
+      </c>
+      <c r="C128" t="s">
+        <v>287</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>274</v>
+      </c>
+      <c r="G128">
+        <v>66.25</v>
+      </c>
+      <c r="H128">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>289</v>
+      </c>
+      <c r="B129" t="s">
+        <v>286</v>
+      </c>
+      <c r="C129" t="s">
+        <v>287</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>274</v>
+      </c>
+      <c r="G129">
+        <v>66.25</v>
+      </c>
+      <c r="H129">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>290</v>
+      </c>
+      <c r="B130" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" t="s">
+        <v>292</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>274</v>
+      </c>
+      <c r="G130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>293</v>
+      </c>
+      <c r="B131" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131" t="s">
+        <v>292</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>274</v>
+      </c>
+      <c r="G131">
+        <v>66.25</v>
+      </c>
+      <c r="H131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>294</v>
+      </c>
+      <c r="B132" t="s">
+        <v>295</v>
+      </c>
+      <c r="C132" t="s">
+        <v>296</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>297</v>
+      </c>
+      <c r="G132" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>298</v>
+      </c>
+      <c r="B133" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" t="s">
+        <v>296</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>297</v>
+      </c>
+      <c r="G133">
+        <v>66.25</v>
+      </c>
+      <c r="H133">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>299</v>
+      </c>
+      <c r="B134" t="s">
+        <v>300</v>
+      </c>
+      <c r="C134" t="s">
+        <v>301</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>297</v>
+      </c>
+      <c r="G134">
+        <v>36.69</v>
+      </c>
+      <c r="H134">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>302</v>
+      </c>
+      <c r="B135" t="s">
+        <v>300</v>
+      </c>
+      <c r="C135" t="s">
+        <v>301</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>297</v>
+      </c>
+      <c r="G135">
+        <v>66.25</v>
+      </c>
+      <c r="H135">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" t="s">
+        <v>304</v>
+      </c>
+      <c r="C136" t="s">
+        <v>305</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>297</v>
+      </c>
+      <c r="G136">
+        <v>39.75</v>
+      </c>
+      <c r="H136">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>306</v>
+      </c>
+      <c r="B137" t="s">
+        <v>304</v>
+      </c>
+      <c r="C137" t="s">
+        <v>305</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>297</v>
+      </c>
+      <c r="G137">
+        <v>66.25</v>
+      </c>
+      <c r="H137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>307</v>
+      </c>
+      <c r="B138" t="s">
+        <v>304</v>
+      </c>
+      <c r="C138" t="s">
+        <v>305</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>297</v>
+      </c>
+      <c r="G138">
+        <v>66.25</v>
+      </c>
+      <c r="H138">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>308</v>
+      </c>
+      <c r="B139" t="s">
+        <v>309</v>
+      </c>
+      <c r="C139" t="s">
+        <v>310</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>297</v>
+      </c>
+      <c r="G139">
+        <v>36.69</v>
+      </c>
+      <c r="H139">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>311</v>
+      </c>
+      <c r="B140" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" t="s">
+        <v>310</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>297</v>
+      </c>
+      <c r="G140">
+        <v>59.11</v>
+      </c>
+      <c r="H140">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>312</v>
+      </c>
+      <c r="B141" t="s">
+        <v>309</v>
+      </c>
+      <c r="C141" t="s">
+        <v>310</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>297</v>
+      </c>
+      <c r="G141">
+        <v>59.11</v>
+      </c>
+      <c r="H141">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>313</v>
+      </c>
+      <c r="B142" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" t="s">
+        <v>310</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>297</v>
+      </c>
+      <c r="G142">
+        <v>22.75</v>
+      </c>
+      <c r="H142">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>314</v>
+      </c>
+      <c r="B143" t="s">
+        <v>315</v>
+      </c>
+      <c r="C143" t="s">
+        <v>315</v>
+      </c>
+      <c r="D143" t="s">
+        <v>316</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143" t="s">
+        <v>297</v>
+      </c>
+      <c r="G143">
+        <v>101.92</v>
+      </c>
+      <c r="H143">
         <v>195</v>
       </c>
-      <c r="D91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>196</v>
-      </c>
-      <c r="G91">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>317</v>
+      </c>
+      <c r="B144" t="s">
+        <v>315</v>
+      </c>
+      <c r="C144" t="s">
+        <v>315</v>
+      </c>
+      <c r="D144" t="s">
+        <v>130</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>297</v>
+      </c>
+      <c r="G144">
+        <v>44.84</v>
+      </c>
+      <c r="H144">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145" t="s">
+        <v>319</v>
+      </c>
+      <c r="C145" t="s">
+        <v>320</v>
+      </c>
+      <c r="D145" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>321</v>
+      </c>
+      <c r="G145">
+        <v>36.69</v>
+      </c>
+      <c r="H145">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>322</v>
+      </c>
+      <c r="B146" t="s">
+        <v>319</v>
+      </c>
+      <c r="C146" t="s">
+        <v>320</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>321</v>
+      </c>
+      <c r="G146">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>198</v>
-      </c>
-      <c r="B92" t="s">
-        <v>194</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="H146">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>323</v>
+      </c>
+      <c r="B147" t="s">
+        <v>324</v>
+      </c>
+      <c r="C147" t="s">
+        <v>325</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>321</v>
+      </c>
+      <c r="G147">
+        <v>39.75</v>
+      </c>
+      <c r="H147">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>326</v>
+      </c>
+      <c r="B148" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" t="s">
+        <v>325</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>321</v>
+      </c>
+      <c r="G148">
+        <v>66.25</v>
+      </c>
+      <c r="H148">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>327</v>
+      </c>
+      <c r="B149" t="s">
+        <v>324</v>
+      </c>
+      <c r="C149" t="s">
+        <v>325</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>321</v>
+      </c>
+      <c r="G149">
+        <v>66.25</v>
+      </c>
+      <c r="H149">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>328</v>
+      </c>
+      <c r="B150" t="s">
+        <v>324</v>
+      </c>
+      <c r="C150" t="s">
+        <v>325</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>321</v>
+      </c>
+      <c r="G150">
+        <v>66.25</v>
+      </c>
+      <c r="H150">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>329</v>
+      </c>
+      <c r="B151" t="s">
+        <v>330</v>
+      </c>
+      <c r="C151" t="s">
+        <v>331</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>321</v>
+      </c>
+      <c r="G151">
+        <v>36.69</v>
+      </c>
+      <c r="H151">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>332</v>
+      </c>
+      <c r="B152" t="s">
+        <v>330</v>
+      </c>
+      <c r="C152" t="s">
+        <v>331</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>321</v>
+      </c>
+      <c r="G152">
+        <v>66.25</v>
+      </c>
+      <c r="H152">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>333</v>
+      </c>
+      <c r="B153" t="s">
+        <v>334</v>
+      </c>
+      <c r="C153" t="s">
+        <v>335</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>321</v>
+      </c>
+      <c r="G153">
+        <v>36.69</v>
+      </c>
+      <c r="H153">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>336</v>
+      </c>
+      <c r="B154" t="s">
+        <v>334</v>
+      </c>
+      <c r="C154" t="s">
+        <v>335</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>321</v>
+      </c>
+      <c r="G154">
+        <v>59.11</v>
+      </c>
+      <c r="H154">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>337</v>
+      </c>
+      <c r="B155" t="s">
+        <v>338</v>
+      </c>
+      <c r="C155" t="s">
+        <v>339</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>340</v>
+      </c>
+      <c r="G155">
+        <v>36.69</v>
+      </c>
+      <c r="H155">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>341</v>
+      </c>
+      <c r="B156" t="s">
+        <v>338</v>
+      </c>
+      <c r="C156" t="s">
+        <v>339</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>340</v>
+      </c>
+      <c r="G156">
+        <v>66.25</v>
+      </c>
+      <c r="H156">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>342</v>
+      </c>
+      <c r="B157" t="s">
+        <v>343</v>
+      </c>
+      <c r="C157" t="s">
+        <v>344</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>340</v>
+      </c>
+      <c r="G157">
+        <v>36.69</v>
+      </c>
+      <c r="H157">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>345</v>
+      </c>
+      <c r="B158" t="s">
+        <v>343</v>
+      </c>
+      <c r="C158" t="s">
+        <v>344</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>340</v>
+      </c>
+      <c r="G158">
+        <v>66.25</v>
+      </c>
+      <c r="H158">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>346</v>
+      </c>
+      <c r="B159" t="s">
+        <v>347</v>
+      </c>
+      <c r="C159" t="s">
+        <v>347</v>
+      </c>
+      <c r="D159" t="s">
+        <v>348</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>340</v>
+      </c>
+      <c r="G159">
+        <v>51.52</v>
+      </c>
+      <c r="H159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>349</v>
+      </c>
+      <c r="B160" t="s">
+        <v>347</v>
+      </c>
+      <c r="C160" t="s">
+        <v>347</v>
+      </c>
+      <c r="D160" t="s">
+        <v>350</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>340</v>
+      </c>
+      <c r="G160">
+        <v>51.52</v>
+      </c>
+      <c r="H160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>351</v>
+      </c>
+      <c r="B161" t="s">
+        <v>352</v>
+      </c>
+      <c r="C161" t="s">
+        <v>353</v>
+      </c>
+      <c r="D161" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>340</v>
+      </c>
+      <c r="G161">
+        <v>36.69</v>
+      </c>
+      <c r="H161">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>354</v>
+      </c>
+      <c r="B162" t="s">
+        <v>352</v>
+      </c>
+      <c r="C162" t="s">
+        <v>353</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>340</v>
+      </c>
+      <c r="G162">
+        <v>66.25</v>
+      </c>
+      <c r="H162">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>355</v>
+      </c>
+      <c r="B163" t="s">
+        <v>356</v>
+      </c>
+      <c r="C163" t="s">
+        <v>357</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>340</v>
+      </c>
+      <c r="G163">
+        <v>36.69</v>
+      </c>
+      <c r="H163">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>358</v>
+      </c>
+      <c r="B164" t="s">
+        <v>356</v>
+      </c>
+      <c r="C164" t="s">
+        <v>357</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>340</v>
+      </c>
+      <c r="G164">
+        <v>66.25</v>
+      </c>
+      <c r="H164">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>359</v>
+      </c>
+      <c r="B165" t="s">
+        <v>360</v>
+      </c>
+      <c r="C165" t="s">
+        <v>361</v>
+      </c>
+      <c r="D165" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>340</v>
+      </c>
+      <c r="G165">
+        <v>36.69</v>
+      </c>
+      <c r="H165">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>362</v>
+      </c>
+      <c r="B166" t="s">
+        <v>360</v>
+      </c>
+      <c r="C166" t="s">
+        <v>361</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>340</v>
+      </c>
+      <c r="G166">
+        <v>59.11</v>
+      </c>
+      <c r="H166">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>363</v>
+      </c>
+      <c r="B167" t="s">
+        <v>364</v>
+      </c>
+      <c r="C167" t="s">
+        <v>365</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>366</v>
+      </c>
+      <c r="G167">
+        <v>36.69</v>
+      </c>
+      <c r="H167">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>367</v>
+      </c>
+      <c r="B168" t="s">
+        <v>364</v>
+      </c>
+      <c r="C168" t="s">
+        <v>365</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>366</v>
+      </c>
+      <c r="G168">
+        <v>66.25</v>
+      </c>
+      <c r="H168">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>368</v>
+      </c>
+      <c r="B169" t="s">
+        <v>364</v>
+      </c>
+      <c r="C169" t="s">
+        <v>365</v>
+      </c>
+      <c r="D169" t="s">
+        <v>32</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169" t="s">
+        <v>366</v>
+      </c>
+      <c r="G169">
+        <v>72.36</v>
+      </c>
+      <c r="H169">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>369</v>
+      </c>
+      <c r="B170" t="s">
+        <v>364</v>
+      </c>
+      <c r="C170" t="s">
+        <v>365</v>
+      </c>
+      <c r="D170" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
+        <v>366</v>
+      </c>
+      <c r="G170">
+        <v>101.92</v>
+      </c>
+      <c r="H170">
         <v>195</v>
-      </c>
-      <c r="D92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92">
-        <v>2</v>
-      </c>
-      <c r="F92" t="s">
-        <v>196</v>
-      </c>
-      <c r="G92">
-        <v>72.36</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>199</v>
-      </c>
-      <c r="B93" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" t="s">
-        <v>195</v>
-      </c>
-      <c r="D93" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s">
-        <v>196</v>
-      </c>
-      <c r="G93">
-        <v>101.92</v>
       </c>
     </row>
   </sheetData>
